--- a/biology/Botanique/Persea/Persea.xlsx
+++ b/biology/Botanique/Persea/Persea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Persea est un genre végétal appartenant à la famille des lauracées représenté par plus de 150 espèces d'arbres à feuillage persistant. L'espèce la plus connue est l'avocatier (P. americana), largement cultivé dans les régions tropicales et subtropicales pour son fruit, l'avocat.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amérique
 Macaronésie
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des preuves fossiles indiquent que le genre est apparu en Afrique de l'ouest durant le Paléocène, puis s'est répandu en Asie, en Amérique du Sud, en Europe et jusqu'en Amérique du Nord. On pense que l'assèchement progressif du climat africain, d'Asie orientale, du bassin méditerranéen entre l'Oligocène et le Pléistocène, ainsi que la glaciation de l'Europe pendant le Pléistocène, ont causé l'extinction du genre à travers ces régions, ayant pour résultat la distribution actuelle.
 </t>
@@ -575,19 +591,90 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Persea est subdivisé en trois sous-genres.
-Sous-genre Persea - Amérique centrale
-Persea americana
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Persea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Persea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Persea - Amérique centrale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Persea americana
 P. americana var. drymifolia
 P. americana var. floccosa
 P. americana var. guatemalensis
 P. americana var. nubigena
 P. americana var. steyermarkii
-P. schiedeana
-Sous-genre Eriodaphne - Amériques, Macaronésie
-Persea alpigena
+P. schiedeana</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Persea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Persea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Eriodaphne - Amériques, Macaronésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Persea alpigena
 Persea borbonia (L.) Spreng.
 Persea caerulea Ruiz &amp; Pav.
 Persea cinerascens S. F. Blake
@@ -596,17 +683,85 @@
 Persea lingue Nees
 Persea longipes
 Persea palustris
-Persea skutchii
-Sous-genre Machilus - Asie
-Persea edulis
+Persea skutchii</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Persea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Persea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Machilus - Asie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Persea edulis
 Persea ichangensis
 Persea japonica
 Persea macrantha
 Persea nanmu
 Persea thunbergii
-Persea yunnanensis
-Autres espèces (à classer)
-Persea alba Nees
+Persea yunnanensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Persea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Persea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres espèces (à classer)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Persea alba Nees
 Persea anomala Britton &amp; P. Wilson
 Persea austin-smithii Standl.
 Persea benthamiana Meisn.
